--- a/Week 1 Assignment - Dungeon Crawler/data/Data Sheet.xlsx
+++ b/Week 1 Assignment - Dungeon Crawler/data/Data Sheet.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nemo1\Source\Repos\Glareyo\Prog-340-GraphicsApplicationProgramming\Week 1 Assignment - Dungeon Crawler\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nemo1\source\repos\Glareyo\Prog-340-GraphicsApplicationProgramming\Week 1 Assignment - Dungeon Crawler\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9C21F1-9C80-43D5-8AF9-6D5746E36896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE9ED40-1ACC-403F-B0C3-2E68D803ED89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Rooms" sheetId="1" r:id="rId1"/>
+    <sheet name="Items" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,14 +27,17 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{EB932CA5-92BA-46AE-82AA-E9F012A5E1C2}" name="room_schema" type="4" refreshedVersion="0" background="1">
+  <connection id="1" xr16:uid="{4C6AA9E1-8172-4EC5-B671-5905627E9369}" name="item_schema" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\nemo1\source\repos\Glareyo\Prog-340-GraphicsApplicationProgramming\Week 1 Assignment - Dungeon Crawler\data\Schema\item_schema.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="2" xr16:uid="{EB932CA5-92BA-46AE-82AA-E9F012A5E1C2}" name="room_schema" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\nemo1\source\repos\Glareyo\Prog-340-GraphicsApplicationProgramming\Week 1 Assignment - Dungeon Crawler\data\Schema\room_schema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -102,6 +106,48 @@
   </si>
   <si>
     <t>A Wall</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>LocationID</t>
+  </si>
+  <si>
+    <t>Flashlight</t>
+  </si>
+  <si>
+    <t>A black flashlight</t>
+  </si>
+  <si>
+    <t>Crayon</t>
+  </si>
+  <si>
+    <t>A red crayon</t>
+  </si>
+  <si>
+    <t>Rope</t>
+  </si>
+  <si>
+    <t>Some rope</t>
+  </si>
+  <si>
+    <t>Weed</t>
+  </si>
+  <si>
+    <t>A jar of weed</t>
+  </si>
+  <si>
+    <t>Knife</t>
+  </si>
+  <si>
+    <t>A karambit</t>
+  </si>
+  <si>
+    <t>Banjo</t>
+  </si>
+  <si>
+    <t>An old banjo with a missing string.</t>
   </si>
 </sst>
 </file>
@@ -187,14 +233,36 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
+  <Schema ID="Schema2">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="Item-data">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Item" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Description" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="LocationID" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Map ID="6" Name="Item-data_Map" RootElement="Item-data" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
+  </Map>
   <Map ID="5" Name="Room-data_Map" RootElement="Room-data" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
+    <DataBinding FileBinding="true" ConnectionID="2" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33C7C18A-8ED5-40AC-87CA-DF359B1674B0}" name="Table1" displayName="Table1" ref="A1:K7" tableType="xml" totalsRowShown="0" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33C7C18A-8ED5-40AC-87CA-DF359B1674B0}" name="Table1" displayName="Table1" ref="A1:K7" tableType="xml" totalsRowShown="0" connectionId="2">
   <autoFilter ref="A1:K7" xr:uid="{33C7C18A-8ED5-40AC-87CA-DF359B1674B0}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{91FD8FE9-892C-4567-B773-8894F10150AE}" uniqueName="ID" name="ID">
@@ -229,6 +297,24 @@
     </tableColumn>
     <tableColumn id="11" xr3:uid="{2DCCDC6D-7213-4779-9D4D-83951F9CFEA5}" uniqueName="wTrapID" name="wTrapID">
       <xmlColumnPr mapId="5" xpath="/Room-data/Room/wTrapID" xmlDataType="integer"/>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{61E3FEA6-0EE3-4067-A678-43359193BFC4}" name="Table2" displayName="Table2" ref="A1:C7" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:C7" xr:uid="{61E3FEA6-0EE3-4067-A678-43359193BFC4}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{72BF0D12-7B32-4E3B-86E7-947970E49766}" uniqueName="Name" name="Name">
+      <xmlColumnPr mapId="6" xpath="/Item-data/Item/Name" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{C18329BE-64D2-4973-BEF2-EE338068153C}" uniqueName="Description" name="Description">
+      <xmlColumnPr mapId="6" xpath="/Item-data/Item/Description" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{1B22A37A-3F3D-49DE-8483-D588BD7E6B98}" uniqueName="LocationID" name="LocationID">
+      <xmlColumnPr mapId="6" xpath="/Item-data/Item/LocationID" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -500,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -553,7 +639,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -588,7 +674,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -760,6 +846,106 @@
       </c>
       <c r="K7">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88530C06-13D6-4395-8D77-2941F18E7D74}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Week 1 Assignment - Dungeon Crawler/data/Data Sheet.xlsx
+++ b/Week 1 Assignment - Dungeon Crawler/data/Data Sheet.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nemo1\source\repos\Glareyo\Prog-340-GraphicsApplicationProgramming\Week 1 Assignment - Dungeon Crawler\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nemo1\Source\Repos\Glareyo\Prog-340-GraphicsApplicationProgramming\Week 1 Assignment - Dungeon Crawler\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE9ED40-1ACC-403F-B0C3-2E68D803ED89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EF3FAB-4DF7-4B01-8132-47D1F9B5727C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rooms" sheetId="1" r:id="rId1"/>
-    <sheet name="Items" sheetId="2" r:id="rId2"/>
+    <sheet name="Traps" sheetId="3" r:id="rId2"/>
+    <sheet name="Items" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,11 +34,23 @@
   <connection id="2" xr16:uid="{EB932CA5-92BA-46AE-82AA-E9F012A5E1C2}" name="room_schema" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\nemo1\source\repos\Glareyo\Prog-340-GraphicsApplicationProgramming\Week 1 Assignment - Dungeon Crawler\data\Schema\room_schema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
+  <connection id="3" xr16:uid="{FB6FF469-9C8B-497F-A418-144E93D70C0E}" name="room_schema1" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\nemo1\source\repos\Glareyo\Prog-340-GraphicsApplicationProgramming\Week 1 Assignment - Dungeon Crawler\data\Schema\room_schema.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="4" xr16:uid="{2DB3390D-FD50-4D2B-B146-A2010068709E}" name="room_schema2" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\nemo1\source\repos\Glareyo\Prog-340-GraphicsApplicationProgramming\Week 1 Assignment - Dungeon Crawler\data\Schema\room_schema.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="5" xr16:uid="{50E40BF5-6A32-41D2-885E-6B0102988C75}" name="trap_schema" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\nemo1\source\repos\Glareyo\Prog-340-GraphicsApplicationProgramming\Week 1 Assignment - Dungeon Crawler\data\Schema\trap_schema.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="6" xr16:uid="{E5986269-AEA9-4EBF-B972-CEF844A0EB86}" name="trap_schema1" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\nemo1\source\repos\Glareyo\Prog-340-GraphicsApplicationProgramming\Week 1 Assignment - Dungeon Crawler\data\Schema\trap_schema.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="160">
   <si>
     <t>ID</t>
   </si>
@@ -60,48 +73,6 @@
     <t>wRoomID</t>
   </si>
   <si>
-    <t>nTrapID</t>
-  </si>
-  <si>
-    <t>sTrapID</t>
-  </si>
-  <si>
-    <t>eTrapID</t>
-  </si>
-  <si>
-    <t>wTrapID</t>
-  </si>
-  <si>
-    <t>Center</t>
-  </si>
-  <si>
-    <t>North</t>
-  </si>
-  <si>
-    <t>South</t>
-  </si>
-  <si>
-    <t>East</t>
-  </si>
-  <si>
-    <t>West</t>
-  </si>
-  <si>
-    <t>The Center Room</t>
-  </si>
-  <si>
-    <t>The North Room</t>
-  </si>
-  <si>
-    <t>The South Room</t>
-  </si>
-  <si>
-    <t>The East Room</t>
-  </si>
-  <si>
-    <t>The West Room</t>
-  </si>
-  <si>
     <t>Wall</t>
   </si>
   <si>
@@ -114,40 +85,451 @@
     <t>LocationID</t>
   </si>
   <si>
-    <t>Flashlight</t>
-  </si>
-  <si>
-    <t>A black flashlight</t>
-  </si>
-  <si>
-    <t>Crayon</t>
-  </si>
-  <si>
-    <t>A red crayon</t>
-  </si>
-  <si>
     <t>Rope</t>
   </si>
   <si>
-    <t>Some rope</t>
-  </si>
-  <si>
-    <t>Weed</t>
-  </si>
-  <si>
-    <t>A jar of weed</t>
-  </si>
-  <si>
     <t>Knife</t>
   </si>
   <si>
-    <t>A karambit</t>
-  </si>
-  <si>
-    <t>Banjo</t>
-  </si>
-  <si>
-    <t>An old banjo with a missing string.</t>
+    <t>trapID</t>
+  </si>
+  <si>
+    <t>defDescription</t>
+  </si>
+  <si>
+    <t>hint</t>
+  </si>
+  <si>
+    <t>disDescription</t>
+  </si>
+  <si>
+    <t>failedDescription</t>
+  </si>
+  <si>
+    <t>itemNeeded</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entry </t>
+  </si>
+  <si>
+    <t>A large entry way, leading into a deep dungeon.</t>
+  </si>
+  <si>
+    <t>Main Corridor</t>
+  </si>
+  <si>
+    <t>Hallway</t>
+  </si>
+  <si>
+    <t>Prisoner Room</t>
+  </si>
+  <si>
+    <t>Waiting Room</t>
+  </si>
+  <si>
+    <t>Restrooms</t>
+  </si>
+  <si>
+    <t>Servant Quarters</t>
+  </si>
+  <si>
+    <t>Grand Dining Hall</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>East Catacombs</t>
+  </si>
+  <si>
+    <t>Northeast Catacombs</t>
+  </si>
+  <si>
+    <t>North Catacombs</t>
+  </si>
+  <si>
+    <t>Grand Entry</t>
+  </si>
+  <si>
+    <t>Armory</t>
+  </si>
+  <si>
+    <t>Captain's Quarters</t>
+  </si>
+  <si>
+    <t>Watchroom</t>
+  </si>
+  <si>
+    <t>Guard Quarters</t>
+  </si>
+  <si>
+    <t>1st Corridor</t>
+  </si>
+  <si>
+    <t>2nd Corridor</t>
+  </si>
+  <si>
+    <t>3rd Corridor</t>
+  </si>
+  <si>
+    <t>Relic Room</t>
+  </si>
+  <si>
+    <t>A large room with arching ceilings, cracked with age.</t>
+  </si>
+  <si>
+    <t>A small, stone bricked hallway.</t>
+  </si>
+  <si>
+    <t>A small room filled with old cells.</t>
+  </si>
+  <si>
+    <t>A long, stone bricked hallway.</t>
+  </si>
+  <si>
+    <t>A small room with a few chairs.</t>
+  </si>
+  <si>
+    <t>A 3 point hall with a dimly lit wall torch.</t>
+  </si>
+  <si>
+    <t>A small room with medieval toilets.</t>
+  </si>
+  <si>
+    <t>A small room with a few beds and tables.</t>
+  </si>
+  <si>
+    <t>A larger room with bunkbeds and tables.</t>
+  </si>
+  <si>
+    <t>A large dining hall with an elongated table.</t>
+  </si>
+  <si>
+    <t>A small cooking area with stoves and tables.</t>
+  </si>
+  <si>
+    <t>A 4-way hallway.</t>
+  </si>
+  <si>
+    <t>A small room lined with coffins and burials.</t>
+  </si>
+  <si>
+    <t>A large room with a single arching way leading to a shining room at the end of the corridor.</t>
+  </si>
+  <si>
+    <t>An old hallway.</t>
+  </si>
+  <si>
+    <t>A large room filled with armors, weapons, crossbows, and other medieval weaponry.</t>
+  </si>
+  <si>
+    <t>A small room with an elegant desk.</t>
+  </si>
+  <si>
+    <t>A small room with 2 chairs.</t>
+  </si>
+  <si>
+    <t>A large room filled with bunkbed, weapons, and tables.</t>
+  </si>
+  <si>
+    <t>An elongated corridor with arching ceilings and a stony brick road.</t>
+  </si>
+  <si>
+    <t>A large, shiny room with a single pedestal in the center.</t>
+  </si>
+  <si>
+    <t>Tripwire</t>
+  </si>
+  <si>
+    <t>A thin tripwire lines the floor, barely visible to the eye.</t>
+  </si>
+  <si>
+    <t>You'll need something that can cut the wire.</t>
+  </si>
+  <si>
+    <t>The tripwire splits, severing it's  connection to a pit trap.</t>
+  </si>
+  <si>
+    <t>The trip wire activates, revealing a dark pit that you fall into…</t>
+  </si>
+  <si>
+    <t>Wire Cutters</t>
+  </si>
+  <si>
+    <t>Sink Hole</t>
+  </si>
+  <si>
+    <t>A large hole in the ground leads down to a dark end.</t>
+  </si>
+  <si>
+    <t>Perhaps something sturdy to cross would work?</t>
+  </si>
+  <si>
+    <t>The board lays perfectly across the sinkhole, creating a makeshift bridge.</t>
+  </si>
+  <si>
+    <t>You fall into the deep depths of the hole.</t>
+  </si>
+  <si>
+    <t>Board</t>
+  </si>
+  <si>
+    <t>Rocky Rubble</t>
+  </si>
+  <si>
+    <t>A large pile of rocks blocks the path ahead.</t>
+  </si>
+  <si>
+    <t>A tool used for digging would help remove the rubble.</t>
+  </si>
+  <si>
+    <t>The shovel works perfectly, creating a crawlable hole for you to pass through.</t>
+  </si>
+  <si>
+    <t>In an attempt to crawl through, the rubble falls on you.</t>
+  </si>
+  <si>
+    <t>Shovel</t>
+  </si>
+  <si>
+    <t>Open Pit</t>
+  </si>
+  <si>
+    <t>A large trapdoor is open, leading down into a dark pit.</t>
+  </si>
+  <si>
+    <t>There seems to be a mechanism missing it's lever arm.</t>
+  </si>
+  <si>
+    <t>The lever fits in perfectly, and with a pull, the trapdoors close.</t>
+  </si>
+  <si>
+    <t>You fall in the pit below.</t>
+  </si>
+  <si>
+    <t>Lever</t>
+  </si>
+  <si>
+    <t>Hanging Axe</t>
+  </si>
+  <si>
+    <t>There is an axe tied to a rope on the door, ready to swing.</t>
+  </si>
+  <si>
+    <t>The rope isn't that strong. A blade could do the trick.</t>
+  </si>
+  <si>
+    <t>The rope frays off, swinging the axe down, missing it's target.</t>
+  </si>
+  <si>
+    <t>The axe swings down.</t>
+  </si>
+  <si>
+    <t>Snake</t>
+  </si>
+  <si>
+    <t>A snake slithers on the ground, hissing with fangs full of poison.</t>
+  </si>
+  <si>
+    <t>A bag or trap of some sort should keep the snake at bay.</t>
+  </si>
+  <si>
+    <t>The bag engulfs the snake, effectively trapping it.</t>
+  </si>
+  <si>
+    <t>The snake bites.</t>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
+  <si>
+    <t>Pressure Plate</t>
+  </si>
+  <si>
+    <t>The ground seems a bit of, with a few of the bricks sticking up a bit.</t>
+  </si>
+  <si>
+    <t>Perhaps poking it with something long is safer.</t>
+  </si>
+  <si>
+    <t>With successful pokes, the long stick sets off the traps.</t>
+  </si>
+  <si>
+    <t>A flurry of traquilizer darts fly out, knocking you out cold.</t>
+  </si>
+  <si>
+    <t>Long Stick</t>
+  </si>
+  <si>
+    <t>Spiders</t>
+  </si>
+  <si>
+    <t>The ground and walls are covered with several spiders.</t>
+  </si>
+  <si>
+    <t>Something to scare them away would suffice, such as a flame or fire.</t>
+  </si>
+  <si>
+    <t>With a few brushes of the torch, the spiders scurry away into the cracks of the wall.</t>
+  </si>
+  <si>
+    <t>The spiders pounce.</t>
+  </si>
+  <si>
+    <t>Torch</t>
+  </si>
+  <si>
+    <t>Quick Sand</t>
+  </si>
+  <si>
+    <t>The sand here seems to be untrustworthy.</t>
+  </si>
+  <si>
+    <t>A bridge here would suffice.</t>
+  </si>
+  <si>
+    <t>The board lays across the sand, creating a bridge.</t>
+  </si>
+  <si>
+    <t>You sink into the sand rapidly.</t>
+  </si>
+  <si>
+    <t>Tranquilizer Darts</t>
+  </si>
+  <si>
+    <t>A hall filled with pressure plates lie ahead, with dart guns lining the walls.</t>
+  </si>
+  <si>
+    <t>Maybe rolling something down the hall can deactivate the traps.</t>
+  </si>
+  <si>
+    <t>Rolling the wheels, the traps activate, sending darts flying across the room.</t>
+  </si>
+  <si>
+    <t>You become a porcupine.</t>
+  </si>
+  <si>
+    <t>Heavy Wheels</t>
+  </si>
+  <si>
+    <t>Spike Trap</t>
+  </si>
+  <si>
+    <t>A bottomless pit filled with spikes at the bottom.</t>
+  </si>
+  <si>
+    <t>Perhaps using something long to swing across should work.</t>
+  </si>
+  <si>
+    <t>Using the rope, you are able to swing across.</t>
+  </si>
+  <si>
+    <t>You fall into the pit full of spikes.</t>
+  </si>
+  <si>
+    <t>Trapdoor</t>
+  </si>
+  <si>
+    <t>There is a carpet here, before the door.</t>
+  </si>
+  <si>
+    <t>It seems that the door needs a key.</t>
+  </si>
+  <si>
+    <t>The key clicks open the door.</t>
+  </si>
+  <si>
+    <t>The carpet gives, revealing itself to be a hidden trapdoor as you fall into the dark.</t>
+  </si>
+  <si>
+    <t>Captain's Key</t>
+  </si>
+  <si>
+    <t>Poisonous Gas</t>
+  </si>
+  <si>
+    <t>There is a thick gas here, making it hard to breath.</t>
+  </si>
+  <si>
+    <t>The gas might be flammable, though.</t>
+  </si>
+  <si>
+    <t>The flames is able to extinguish the gas with ease.</t>
+  </si>
+  <si>
+    <t>The gas engulfs your lungs, knocking you out.</t>
+  </si>
+  <si>
+    <t>A long stick.</t>
+  </si>
+  <si>
+    <t>A pair of wire cutters.</t>
+  </si>
+  <si>
+    <t>A sturdy board.</t>
+  </si>
+  <si>
+    <t>A single, lit torch.</t>
+  </si>
+  <si>
+    <t>It appears to be a lever of some sort.</t>
+  </si>
+  <si>
+    <t>Vase</t>
+  </si>
+  <si>
+    <t>An antique vase.</t>
+  </si>
+  <si>
+    <t>A large, canvas bag.</t>
+  </si>
+  <si>
+    <t>An old shovel for digging.</t>
+  </si>
+  <si>
+    <t>Laddle</t>
+  </si>
+  <si>
+    <t>Pan</t>
+  </si>
+  <si>
+    <t>A rusty knife, but it is still sharp.</t>
+  </si>
+  <si>
+    <t>A small laddle.</t>
+  </si>
+  <si>
+    <t>A cast iron pan.</t>
+  </si>
+  <si>
+    <t>A small collection of wooden, heavy wheels.</t>
+  </si>
+  <si>
+    <t>A strong, long piece of rope.</t>
+  </si>
+  <si>
+    <t>Skull</t>
+  </si>
+  <si>
+    <t>A skull.</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>An old book.</t>
+  </si>
+  <si>
+    <t>A golden key</t>
+  </si>
+  <si>
+    <t>Ancient Relic</t>
+  </si>
+  <si>
+    <t>The ancient relic.</t>
   </si>
 </sst>
 </file>
@@ -183,15 +565,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -206,33 +621,6 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema1">
-    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
-      <xsd:element nillable="true" name="Room-data">
-        <xsd:complexType>
-          <xsd:sequence minOccurs="0">
-            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Room" form="unqualified">
-              <xsd:complexType>
-                <xsd:sequence minOccurs="0">
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ID" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Description" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="nRoomID" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="sRoomID" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="eRoomID" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="wRoomID" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="nTrapID" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="sTrapID" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="eTrapID" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="wTrapID" form="unqualified"/>
-                </xsd:sequence>
-              </xsd:complexType>
-            </xsd:element>
-          </xsd:sequence>
-        </xsd:complexType>
-      </xsd:element>
-    </xsd:schema>
-  </Schema>
   <Schema ID="Schema2">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="Item-data">
@@ -252,51 +640,92 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
+  <Schema ID="Schema4">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="Room-data">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Room" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ID" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Description" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="nRoomID" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="sRoomID" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="eRoomID" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="wRoomID" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="trapID" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Schema ID="Schema6">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="Trap-data">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Trap" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ID" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="defDescription" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="hint" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="disDescription" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="failedDescription" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="itemNeeded" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
   <Map ID="6" Name="Item-data_Map" RootElement="Item-data" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
     <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
   </Map>
-  <Map ID="5" Name="Room-data_Map" RootElement="Room-data" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="2" DataBindingLoadMode="1"/>
+  <Map ID="9" Name="Room-data_Map" RootElement="Room-data" SchemaID="Schema4" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="4" DataBindingLoadMode="1"/>
+  </Map>
+  <Map ID="11" Name="Trap-data_Map" RootElement="Trap-data" SchemaID="Schema6" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="6" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33C7C18A-8ED5-40AC-87CA-DF359B1674B0}" name="Table1" displayName="Table1" ref="A1:K7" tableType="xml" totalsRowShown="0" connectionId="2">
-  <autoFilter ref="A1:K7" xr:uid="{33C7C18A-8ED5-40AC-87CA-DF359B1674B0}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{91FD8FE9-892C-4567-B773-8894F10150AE}" uniqueName="ID" name="ID">
-      <xmlColumnPr mapId="5" xpath="/Room-data/Room/ID" xmlDataType="string"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33C7C18A-8ED5-40AC-87CA-DF359B1674B0}" name="Table1" displayName="Table1" ref="A1:H28" tableType="xml" totalsRowShown="0" connectionId="4">
+  <autoFilter ref="A1:H28" xr:uid="{33C7C18A-8ED5-40AC-87CA-DF359B1674B0}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{91FD8FE9-892C-4567-B773-8894F10150AE}" uniqueName="ID" name="ID" dataDxfId="0">
+      <xmlColumnPr mapId="9" xpath="/Room-data/Room/ID" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{92971961-F1E6-44D4-9926-3C2270CFC87B}" uniqueName="Name" name="Name ">
-      <xmlColumnPr mapId="5" xpath="/Room-data/Room/Name" xmlDataType="string"/>
+      <xmlColumnPr mapId="9" xpath="/Room-data/Room/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AC6912F8-77EA-4899-9229-992382A7379F}" uniqueName="Description" name="Description">
-      <xmlColumnPr mapId="5" xpath="/Room-data/Room/Description" xmlDataType="string"/>
+    <tableColumn id="3" xr3:uid="{AC6912F8-77EA-4899-9229-992382A7379F}" uniqueName="Description" name="Description" dataDxfId="1">
+      <xmlColumnPr mapId="9" xpath="/Room-data/Room/Description" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{B674794B-0724-434F-A33C-2282FB139DC6}" uniqueName="nRoomID" name="nRoomID">
-      <xmlColumnPr mapId="5" xpath="/Room-data/Room/nRoomID" xmlDataType="integer"/>
+      <xmlColumnPr mapId="9" xpath="/Room-data/Room/nRoomID" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{DC15F04F-D01A-47DB-BFB4-1696398B05A5}" uniqueName="sRoomID" name="sRoomID">
-      <xmlColumnPr mapId="5" xpath="/Room-data/Room/sRoomID" xmlDataType="integer"/>
+      <xmlColumnPr mapId="9" xpath="/Room-data/Room/sRoomID" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{1FD8AEFE-A6EF-4F94-81E8-8A1AEA205321}" uniqueName="eRoomID" name="eRoomID">
-      <xmlColumnPr mapId="5" xpath="/Room-data/Room/eRoomID" xmlDataType="integer"/>
+      <xmlColumnPr mapId="9" xpath="/Room-data/Room/eRoomID" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{11C53ADA-0ADA-4C4B-A9A0-679532DF07BA}" uniqueName="wRoomID" name="wRoomID">
-      <xmlColumnPr mapId="5" xpath="/Room-data/Room/wRoomID" xmlDataType="integer"/>
+      <xmlColumnPr mapId="9" xpath="/Room-data/Room/wRoomID" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{94A23AD5-60B4-4BE8-91BE-47395C899171}" uniqueName="nTrapID" name="nTrapID">
-      <xmlColumnPr mapId="5" xpath="/Room-data/Room/nTrapID" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{9EEC06A8-F941-4781-A555-1D1599C78F89}" uniqueName="sTrapID" name="sTrapID">
-      <xmlColumnPr mapId="5" xpath="/Room-data/Room/sTrapID" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{33678C47-A5B8-449E-B028-9F2ACCB78CCD}" uniqueName="eTrapID" name="eTrapID">
-      <xmlColumnPr mapId="5" xpath="/Room-data/Room/eTrapID" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="11" xr3:uid="{2DCCDC6D-7213-4779-9D4D-83951F9CFEA5}" uniqueName="wTrapID" name="wTrapID">
-      <xmlColumnPr mapId="5" xpath="/Room-data/Room/wTrapID" xmlDataType="integer"/>
+    <tableColumn id="8" xr3:uid="{94A23AD5-60B4-4BE8-91BE-47395C899171}" uniqueName="trapID" name="trapID">
+      <xmlColumnPr mapId="9" xpath="/Room-data/Room/trapID" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -304,8 +733,38 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{61E3FEA6-0EE3-4067-A678-43359193BFC4}" name="Table2" displayName="Table2" ref="A1:C7" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:C7" xr:uid="{61E3FEA6-0EE3-4067-A678-43359193BFC4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{229A6065-9448-478D-8C33-4187AA7E6FCB}" name="Table3" displayName="Table3" ref="A1:G14" tableType="xml" totalsRowShown="0" connectionId="6">
+  <autoFilter ref="A1:G14" xr:uid="{229A6065-9448-478D-8C33-4187AA7E6FCB}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{26A2F808-400E-4C11-AEC2-B412C52DABA5}" uniqueName="ID" name="ID">
+      <xmlColumnPr mapId="11" xpath="/Trap-data/Trap/ID" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{332ADB1A-44ED-40FB-B34A-1D610A25D84E}" uniqueName="Name" name="Name">
+      <xmlColumnPr mapId="11" xpath="/Trap-data/Trap/Name" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{779F9261-9AF8-4826-9541-B15D0EE4DF91}" uniqueName="defDescription" name="defDescription" dataDxfId="6">
+      <xmlColumnPr mapId="11" xpath="/Trap-data/Trap/defDescription" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{89DF3671-AA3D-4A13-ACE9-ACB258F80B3B}" uniqueName="hint" name="hint" dataDxfId="5">
+      <xmlColumnPr mapId="11" xpath="/Trap-data/Trap/hint" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{2692385C-511A-44C3-A17A-1E47A496C577}" uniqueName="disDescription" name="disDescription" dataDxfId="4">
+      <xmlColumnPr mapId="11" xpath="/Trap-data/Trap/disDescription" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{83146A0F-4A81-4933-A456-1CC37D82B65E}" uniqueName="failedDescription" name="failedDescription" dataDxfId="3">
+      <xmlColumnPr mapId="11" xpath="/Trap-data/Trap/failedDescription" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{756A648D-3D0F-4EAA-B9C6-18D3F7BE64BF}" uniqueName="itemNeeded" name="itemNeeded" dataDxfId="2">
+      <xmlColumnPr mapId="11" xpath="/Trap-data/Trap/itemNeeded" xmlDataType="integer"/>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{61E3FEA6-0EE3-4067-A678-43359193BFC4}" name="Table2" displayName="Table2" ref="A1:C20" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:C20" xr:uid="{61E3FEA6-0EE3-4067-A678-43359193BFC4}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{72BF0D12-7B32-4E3B-86E7-947970E49766}" uniqueName="Name" name="Name">
       <xmlColumnPr mapId="6" xpath="/Item-data/Item/Name" xmlDataType="string"/>
@@ -584,33 +1043,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K7"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="21.21875" customWidth="1"/>
-    <col min="3" max="3" width="29.21875" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="9.88671875" customWidth="1"/>
     <col min="5" max="7" width="8.88671875" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -626,97 +1085,70 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
+    </row>
+    <row r="4" spans="1:8" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -725,126 +1157,636 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
+      <c r="G15">
+        <v>17</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>13</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>14</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>13</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>13</v>
+      </c>
+      <c r="G19">
         <v>18</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20">
+        <v>21</v>
+      </c>
+      <c r="E20">
         <v>19</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="F20">
+        <v>17</v>
+      </c>
+      <c r="G20">
+        <v>20</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21">
+        <v>18</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    </row>
+    <row r="22" spans="1:8" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>18</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>18</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>22</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>21</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>17</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>23</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27">
+        <v>26</v>
+      </c>
+      <c r="E27">
+        <v>24</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>25</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>0</v>
       </c>
     </row>
@@ -857,11 +1799,361 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5C7F2D-2393-4600-80BA-CDD85CE2E90E}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.109375" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88530C06-13D6-4395-8D77-2941F18E7D74}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -873,43 +2165,43 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="2">
+        <v>138</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -917,10 +2209,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -928,24 +2220,167 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Week 1 Assignment - Dungeon Crawler/data/Data Sheet.xlsx
+++ b/Week 1 Assignment - Dungeon Crawler/data/Data Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nemo1\Source\Repos\Glareyo\Prog-340-GraphicsApplicationProgramming\Week 1 Assignment - Dungeon Crawler\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EF3FAB-4DF7-4B01-8132-47D1F9B5727C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169EAF6A-7FA5-4620-92A0-5BECE3BA84D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -586,12 +586,6 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
@@ -605,6 +599,12 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -703,13 +703,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33C7C18A-8ED5-40AC-87CA-DF359B1674B0}" name="Table1" displayName="Table1" ref="A1:H28" tableType="xml" totalsRowShown="0" connectionId="4">
   <autoFilter ref="A1:H28" xr:uid="{33C7C18A-8ED5-40AC-87CA-DF359B1674B0}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{91FD8FE9-892C-4567-B773-8894F10150AE}" uniqueName="ID" name="ID" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{91FD8FE9-892C-4567-B773-8894F10150AE}" uniqueName="ID" name="ID" dataDxfId="6">
       <xmlColumnPr mapId="9" xpath="/Room-data/Room/ID" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{92971961-F1E6-44D4-9926-3C2270CFC87B}" uniqueName="Name" name="Name ">
       <xmlColumnPr mapId="9" xpath="/Room-data/Room/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AC6912F8-77EA-4899-9229-992382A7379F}" uniqueName="Description" name="Description" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{AC6912F8-77EA-4899-9229-992382A7379F}" uniqueName="Description" name="Description" dataDxfId="5">
       <xmlColumnPr mapId="9" xpath="/Room-data/Room/Description" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{B674794B-0724-434F-A33C-2282FB139DC6}" uniqueName="nRoomID" name="nRoomID">
@@ -742,19 +742,19 @@
     <tableColumn id="2" xr3:uid="{332ADB1A-44ED-40FB-B34A-1D610A25D84E}" uniqueName="Name" name="Name">
       <xmlColumnPr mapId="11" xpath="/Trap-data/Trap/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{779F9261-9AF8-4826-9541-B15D0EE4DF91}" uniqueName="defDescription" name="defDescription" dataDxfId="6">
+    <tableColumn id="3" xr3:uid="{779F9261-9AF8-4826-9541-B15D0EE4DF91}" uniqueName="defDescription" name="defDescription" dataDxfId="4">
       <xmlColumnPr mapId="11" xpath="/Trap-data/Trap/defDescription" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{89DF3671-AA3D-4A13-ACE9-ACB258F80B3B}" uniqueName="hint" name="hint" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{89DF3671-AA3D-4A13-ACE9-ACB258F80B3B}" uniqueName="hint" name="hint" dataDxfId="3">
       <xmlColumnPr mapId="11" xpath="/Trap-data/Trap/hint" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{2692385C-511A-44C3-A17A-1E47A496C577}" uniqueName="disDescription" name="disDescription" dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{2692385C-511A-44C3-A17A-1E47A496C577}" uniqueName="disDescription" name="disDescription" dataDxfId="2">
       <xmlColumnPr mapId="11" xpath="/Trap-data/Trap/disDescription" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{83146A0F-4A81-4933-A456-1CC37D82B65E}" uniqueName="failedDescription" name="failedDescription" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{83146A0F-4A81-4933-A456-1CC37D82B65E}" uniqueName="failedDescription" name="failedDescription" dataDxfId="1">
       <xmlColumnPr mapId="11" xpath="/Trap-data/Trap/failedDescription" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{756A648D-3D0F-4EAA-B9C6-18D3F7BE64BF}" uniqueName="itemNeeded" name="itemNeeded" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{756A648D-3D0F-4EAA-B9C6-18D3F7BE64BF}" uniqueName="itemNeeded" name="itemNeeded" dataDxfId="0">
       <xmlColumnPr mapId="11" xpath="/Trap-data/Trap/itemNeeded" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
@@ -1045,7 +1045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -2152,8 +2152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88530C06-13D6-4395-8D77-2941F18E7D74}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Week 1 Assignment - Dungeon Crawler/data/Data Sheet.xlsx
+++ b/Week 1 Assignment - Dungeon Crawler/data/Data Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nemo1\Source\Repos\Glareyo\Prog-340-GraphicsApplicationProgramming\Week 1 Assignment - Dungeon Crawler\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedillo02\Source\Repos\Glareyo\Prog-340-GraphicsApplicationProgramming\Week 1 Assignment - Dungeon Crawler\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169EAF6A-7FA5-4620-92A0-5BECE3BA84D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87B9DAF-079E-4F7C-9A81-F1096300D463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rooms" sheetId="1" r:id="rId1"/>
@@ -1049,20 +1049,20 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.21875" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" customWidth="1"/>
-    <col min="5" max="7" width="8.88671875" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="7" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="71.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="85.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -1806,18 +1806,18 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.109375" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2152,18 +2152,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88530C06-13D6-4395-8D77-2941F18E7D74}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1"/>
-    <col min="3" max="3" width="30.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>109</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>142</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>109</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>146</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>147</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>120</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>153</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>155</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>131</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>158</v>
       </c>
